--- a/data/energy_data.xlsx
+++ b/data/energy_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\GitHub\business_data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/Education/UNIPD/Fall 2023/Business Economic and Financial Data/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{002D2580-3774-44E9-91B1-E0044CB9BE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D939ADD-6FF7-A640-941B-D108EEE357EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7030" yWindow="870" windowWidth="21640" windowHeight="11690"/>
+    <workbookView xWindow="2340" yWindow="500" windowWidth="26460" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="energy_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="energy_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -6007,9 +6008,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -6491,7 +6492,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6846,20 +6847,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E994A85A-5538-2840-91D7-ABF66DB4F852}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6966,7 +7011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>36892</v>
       </c>
@@ -7073,7 +7118,7 @@
         <v>1019.3</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>36923</v>
       </c>
@@ -7180,7 +7225,7 @@
         <v>1023.3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>36951</v>
       </c>
@@ -7287,7 +7332,7 @@
         <v>1014.2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>36982</v>
       </c>
@@ -7394,7 +7439,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>37012</v>
       </c>
@@ -7501,7 +7546,7 @@
         <v>1017.1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>37043</v>
       </c>
@@ -7608,7 +7653,7 @@
         <v>1016.2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>37073</v>
       </c>
@@ -7715,7 +7760,7 @@
         <v>1016.3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>37104</v>
       </c>
@@ -7822,7 +7867,7 @@
         <v>1016.6</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>37135</v>
       </c>
@@ -7929,7 +7974,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>37165</v>
       </c>
@@ -8036,7 +8081,7 @@
         <v>1020.5</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>37196</v>
       </c>
@@ -8143,7 +8188,7 @@
         <v>1022.6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>37226</v>
       </c>
@@ -8250,7 +8295,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>37257</v>
       </c>
@@ -8357,7 +8402,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>37288</v>
       </c>
@@ -8464,7 +8509,7 @@
         <v>1019.3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>37316</v>
       </c>
@@ -8571,7 +8616,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>37347</v>
       </c>
@@ -8678,7 +8723,7 @@
         <v>1019.8</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37377</v>
       </c>
@@ -8785,7 +8830,7 @@
         <v>1017.9</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>37408</v>
       </c>
@@ -8892,7 +8937,7 @@
         <v>1016.6</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>37438</v>
       </c>
@@ -8999,7 +9044,7 @@
         <v>1016.6</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>37469</v>
       </c>
@@ -9106,7 +9151,7 @@
         <v>1018.2</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>37500</v>
       </c>
@@ -9213,7 +9258,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>37530</v>
       </c>
@@ -9320,7 +9365,7 @@
         <v>1019.7</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>37561</v>
       </c>
@@ -9427,7 +9472,7 @@
         <v>1016.2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>37591</v>
       </c>
@@ -9534,7 +9579,7 @@
         <v>1018.5</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>37622</v>
       </c>
@@ -9641,7 +9686,7 @@
         <v>1017.8</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>37653</v>
       </c>
@@ -9748,7 +9793,7 @@
         <v>1018.1</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>37681</v>
       </c>
@@ -9855,7 +9900,7 @@
         <v>1016.9</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>37712</v>
       </c>
@@ -9962,7 +10007,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>37742</v>
       </c>
@@ -10069,7 +10114,7 @@
         <v>1015.1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>37773</v>
       </c>
@@ -10176,7 +10221,7 @@
         <v>1014.2</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>37803</v>
       </c>
@@ -10283,7 +10328,7 @@
         <v>1015.6</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>37834</v>
       </c>
@@ -10390,7 +10435,7 @@
         <v>1016.9</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37865</v>
       </c>
@@ -10497,7 +10542,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>37895</v>
       </c>
@@ -10604,7 +10649,7 @@
         <v>1017.1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>37926</v>
       </c>
@@ -10711,7 +10756,7 @@
         <v>1019.7</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37956</v>
       </c>
@@ -10818,7 +10863,7 @@
         <v>1019.4</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37987</v>
       </c>
@@ -10925,7 +10970,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38018</v>
       </c>
@@ -11032,7 +11077,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38047</v>
       </c>
@@ -11139,7 +11184,7 @@
         <v>1021.7</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38078</v>
       </c>
@@ -11246,7 +11291,7 @@
         <v>1014.9</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>38108</v>
       </c>
@@ -11353,7 +11398,7 @@
         <v>1016.8</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>38139</v>
       </c>
@@ -11460,7 +11505,7 @@
         <v>1016.9</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>38169</v>
       </c>
@@ -11567,7 +11612,7 @@
         <v>1014.4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>38200</v>
       </c>
@@ -11674,7 +11719,7 @@
         <v>1016.6</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>38231</v>
       </c>
@@ -11781,7 +11826,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>38261</v>
       </c>
@@ -11888,7 +11933,7 @@
         <v>1017.9</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>38292</v>
       </c>
@@ -11995,7 +12040,7 @@
         <v>1021.8</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>38322</v>
       </c>
@@ -12102,7 +12147,7 @@
         <v>1019.3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>38353</v>
       </c>
@@ -12209,7 +12254,7 @@
         <v>1023.9</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>38384</v>
       </c>
@@ -12316,7 +12361,7 @@
         <v>1021.4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>38412</v>
       </c>
@@ -12423,7 +12468,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>38443</v>
       </c>
@@ -12530,7 +12575,7 @@
         <v>1013.6</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>38473</v>
       </c>
@@ -12637,7 +12682,7 @@
         <v>1015.3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38504</v>
       </c>
@@ -12744,7 +12789,7 @@
         <v>1015.9</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>38534</v>
       </c>
@@ -12851,7 +12896,7 @@
         <v>1016.1</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>38565</v>
       </c>
@@ -12958,7 +13003,7 @@
         <v>1016.3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>38596</v>
       </c>
@@ -13065,7 +13110,7 @@
         <v>1019.3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>38626</v>
       </c>
@@ -13172,7 +13217,7 @@
         <v>1016.9</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>38657</v>
       </c>
@@ -13279,7 +13324,7 @@
         <v>1018.4</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>38687</v>
       </c>
@@ -13386,7 +13431,7 @@
         <v>1018.1</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>38718</v>
       </c>
@@ -13493,7 +13538,7 @@
         <v>1016.3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>38749</v>
       </c>
@@ -13600,7 +13645,7 @@
         <v>1017.3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>38777</v>
       </c>
@@ -13707,7 +13752,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>38808</v>
       </c>
@@ -13814,7 +13859,7 @@
         <v>1014.6</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>38838</v>
       </c>
@@ -13921,7 +13966,7 @@
         <v>1012.2</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>38869</v>
       </c>
@@ -14028,7 +14073,7 @@
         <v>1014.7</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>38899</v>
       </c>
@@ -14135,7 +14180,7 @@
         <v>1016.4</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>38930</v>
       </c>
@@ -14242,7 +14287,7 @@
         <v>1015.9</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>38961</v>
       </c>
@@ -14349,7 +14394,7 @@
         <v>1016.2</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>38991</v>
       </c>
@@ -14456,7 +14501,7 @@
         <v>1016.2</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>39022</v>
       </c>
@@ -14563,7 +14608,7 @@
         <v>1019.3</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>39052</v>
       </c>
@@ -14670,7 +14715,7 @@
         <v>1023.3</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>39083</v>
       </c>
@@ -14777,7 +14822,7 @@
         <v>1019.7</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>39114</v>
       </c>
@@ -14884,7 +14929,7 @@
         <v>1017.1</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>39142</v>
       </c>
@@ -14991,7 +15036,7 @@
         <v>1021.9</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>39173</v>
       </c>
@@ -15098,7 +15143,7 @@
         <v>1013.1</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>39203</v>
       </c>
@@ -15205,7 +15250,7 @@
         <v>1020.2</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>39234</v>
       </c>
@@ -15312,7 +15357,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>39264</v>
       </c>
@@ -15419,7 +15464,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>39295</v>
       </c>
@@ -15526,7 +15571,7 @@
         <v>1015.6</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>39326</v>
       </c>
@@ -15633,7 +15678,7 @@
         <v>1020.4</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>39356</v>
       </c>
@@ -15740,7 +15785,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>39387</v>
       </c>
@@ -15847,7 +15892,7 @@
         <v>1019.6</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>39417</v>
       </c>
@@ -15954,7 +15999,7 @@
         <v>1021.1</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>39448</v>
       </c>
@@ -16061,7 +16106,7 @@
         <v>1021.6</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>39479</v>
       </c>
@@ -16168,7 +16213,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>39508</v>
       </c>
@@ -16275,7 +16320,7 @@
         <v>1018.8</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>39539</v>
       </c>
@@ -16382,7 +16427,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>39569</v>
       </c>
@@ -16489,7 +16534,7 @@
         <v>1011.7</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>39600</v>
       </c>
@@ -16596,7 +16641,7 @@
         <v>1014.5</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>39630</v>
       </c>
@@ -16703,7 +16748,7 @@
         <v>1014.9</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>39661</v>
       </c>
@@ -16810,7 +16855,7 @@
         <v>1014.7</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>39692</v>
       </c>
@@ -16917,7 +16962,7 @@
         <v>1019.3</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>39722</v>
       </c>
@@ -17024,7 +17069,7 @@
         <v>1021.7</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>39753</v>
       </c>
@@ -17131,7 +17176,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>39783</v>
       </c>
@@ -17238,7 +17283,7 @@
         <v>1020.9</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>39814</v>
       </c>
@@ -17345,7 +17390,7 @@
         <v>1018.4</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>39845</v>
       </c>
@@ -17452,7 +17497,7 @@
         <v>1019.7</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>39873</v>
       </c>
@@ -17559,7 +17604,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>39904</v>
       </c>
@@ -17666,7 +17711,7 @@
         <v>1015.5</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>39934</v>
       </c>
@@ -17773,7 +17818,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>39965</v>
       </c>
@@ -17880,7 +17925,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>39995</v>
       </c>
@@ -17987,7 +18032,7 @@
         <v>1014.2</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>40026</v>
       </c>
@@ -18094,7 +18139,7 @@
         <v>1016.6</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>40057</v>
       </c>
@@ -18201,7 +18246,7 @@
         <v>1018.9</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>40087</v>
       </c>
@@ -18308,7 +18353,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>40118</v>
       </c>
@@ -18415,7 +18460,7 @@
         <v>1019.7</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>40148</v>
       </c>
@@ -18522,7 +18567,7 @@
         <v>1019.7</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>40179</v>
       </c>
@@ -18629,7 +18674,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>40210</v>
       </c>
@@ -18736,7 +18781,7 @@
         <v>1012.2</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>40238</v>
       </c>
@@ -18843,7 +18888,7 @@
         <v>1012.2</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>40269</v>
       </c>
@@ -18950,7 +18995,7 @@
         <v>1014.7</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>40299</v>
       </c>
@@ -19057,7 +19102,7 @@
         <v>1016.5</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>40330</v>
       </c>
@@ -19164,7 +19209,7 @@
         <v>1013.5</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>40360</v>
       </c>
@@ -19271,7 +19316,7 @@
         <v>1015.2</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>40391</v>
       </c>
@@ -19378,7 +19423,7 @@
         <v>1015.5</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>40422</v>
       </c>
@@ -19485,7 +19530,7 @@
         <v>1015.2</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>40452</v>
       </c>
@@ -19592,7 +19637,7 @@
         <v>1014.2</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>40483</v>
       </c>
@@ -19699,7 +19744,7 @@
         <v>1020.2</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>40513</v>
       </c>
@@ -19806,7 +19851,7 @@
         <v>1015.4</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>40544</v>
       </c>
@@ -19913,7 +19958,7 @@
         <v>1017.1</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>40575</v>
       </c>
@@ -20020,7 +20065,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>40603</v>
       </c>
@@ -20127,7 +20172,7 @@
         <v>1020.5</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>40634</v>
       </c>
@@ -20234,7 +20279,7 @@
         <v>1013.8</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>40664</v>
       </c>
@@ -20341,7 +20386,7 @@
         <v>1014.3</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>40695</v>
       </c>
@@ -20448,7 +20493,7 @@
         <v>1013.6</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>40725</v>
       </c>
@@ -20555,7 +20600,7 @@
         <v>1013.9</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>40756</v>
       </c>
@@ -20662,7 +20707,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>40787</v>
       </c>
@@ -20769,7 +20814,7 @@
         <v>1016.4</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>40817</v>
       </c>
@@ -20876,7 +20921,7 @@
         <v>1016.5</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>40848</v>
       </c>
@@ -20983,7 +21028,7 @@
         <v>1020.3</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>40878</v>
       </c>
@@ -21090,7 +21135,7 @@
         <v>1022.7</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>40909</v>
       </c>
@@ -21197,7 +21242,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>40940</v>
       </c>
@@ -21304,7 +21349,7 @@
         <v>1019.1</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>40969</v>
       </c>
@@ -21411,7 +21456,7 @@
         <v>1019.6</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>41000</v>
       </c>
@@ -21518,7 +21563,7 @@
         <v>1014.2</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>41030</v>
       </c>
@@ -21625,7 +21670,7 @@
         <v>1016.1</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>41061</v>
       </c>
@@ -21732,7 +21777,7 @@
         <v>1014.4</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>41091</v>
       </c>
@@ -21839,7 +21884,7 @@
         <v>1014.4</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>41122</v>
       </c>
@@ -21946,7 +21991,7 @@
         <v>1015.6</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>41153</v>
       </c>
@@ -22053,7 +22098,7 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>41183</v>
       </c>
@@ -22160,7 +22205,7 @@
         <v>1014.9</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>41214</v>
       </c>
@@ -22267,7 +22312,7 @@
         <v>1022.7</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>41244</v>
       </c>
@@ -22374,7 +22419,7 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>41275</v>
       </c>
@@ -22481,7 +22526,7 @@
         <v>1022.2</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>41306</v>
       </c>
@@ -22588,7 +22633,7 @@
         <v>1017.3</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>41334</v>
       </c>
@@ -22695,7 +22740,7 @@
         <v>1015.4</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>41365</v>
       </c>
@@ -22802,7 +22847,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>41395</v>
       </c>
@@ -22909,7 +22954,7 @@
         <v>1018.6</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>41426</v>
       </c>
@@ -23016,7 +23061,7 @@
         <v>1013.8</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>41456</v>
       </c>
@@ -23123,7 +23168,7 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>41487</v>
       </c>
@@ -23230,7 +23275,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>41518</v>
       </c>
@@ -23337,7 +23382,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>41548</v>
       </c>
@@ -23444,7 +23489,7 @@
         <v>1018.6</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>41579</v>
       </c>
@@ -23551,7 +23596,7 @@
         <v>1023.5</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>41609</v>
       </c>
@@ -23658,7 +23703,7 @@
         <v>1020.9</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>41640</v>
       </c>
@@ -23765,7 +23810,7 @@
         <v>1018.6</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>41671</v>
       </c>
@@ -23872,7 +23917,7 @@
         <v>1018.7</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>41699</v>
       </c>
@@ -23979,7 +24024,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>41730</v>
       </c>
@@ -24086,7 +24131,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>41760</v>
       </c>
@@ -24193,7 +24238,7 @@
         <v>1016.7</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>41791</v>
       </c>
@@ -24300,7 +24345,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>41821</v>
       </c>
@@ -24407,7 +24452,7 @@
         <v>1015.6</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>41852</v>
       </c>
@@ -24514,7 +24559,7 @@
         <v>1016.9</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>41883</v>
       </c>
@@ -24621,7 +24666,7 @@
         <v>1019.4</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>41913</v>
       </c>
@@ -24728,7 +24773,7 @@
         <v>1014.6</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>41944</v>
       </c>
@@ -24835,7 +24880,7 @@
         <v>1019.1</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>41974</v>
       </c>
@@ -24942,7 +24987,7 @@
         <v>1021.6</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>42005</v>
       </c>
@@ -25049,7 +25094,7 @@
         <v>1018.6</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>42036</v>
       </c>
@@ -25156,7 +25201,7 @@
         <v>1018.7</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>42064</v>
       </c>
@@ -25263,7 +25308,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>42095</v>
       </c>
@@ -25370,7 +25415,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>42125</v>
       </c>
@@ -25477,7 +25522,7 @@
         <v>1016.7</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>42156</v>
       </c>
@@ -25584,7 +25629,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>42186</v>
       </c>
@@ -25691,7 +25736,7 @@
         <v>1015.6</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>42217</v>
       </c>
@@ -25798,7 +25843,7 @@
         <v>1016.9</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>42248</v>
       </c>
@@ -25905,7 +25950,7 @@
         <v>1019.4</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>42278</v>
       </c>
@@ -26012,7 +26057,7 @@
         <v>1014.6</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>42309</v>
       </c>
@@ -26119,7 +26164,7 @@
         <v>1019.1</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>42339</v>
       </c>
@@ -26226,7 +26271,7 @@
         <v>1021.6</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>42370</v>
       </c>
@@ -26333,7 +26378,7 @@
         <v>1018.6</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42401</v>
       </c>
@@ -26440,7 +26485,7 @@
         <v>1018.7</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42430</v>
       </c>
@@ -26547,7 +26592,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42461</v>
       </c>
@@ -26654,7 +26699,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42491</v>
       </c>
@@ -26761,7 +26806,7 @@
         <v>1016.7</v>
       </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42522</v>
       </c>
@@ -26868,7 +26913,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42552</v>
       </c>
@@ -26975,7 +27020,7 @@
         <v>1015.6</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42583</v>
       </c>
@@ -27082,7 +27127,7 @@
         <v>1016.9</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42614</v>
       </c>
@@ -27189,7 +27234,7 @@
         <v>1019.4</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>42644</v>
       </c>
@@ -27296,7 +27341,7 @@
         <v>1014.6</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>42675</v>
       </c>
@@ -27403,7 +27448,7 @@
         <v>1019.1</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>42705</v>
       </c>
@@ -27510,7 +27555,7 @@
         <v>1021.6</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>42736</v>
       </c>
@@ -27617,7 +27662,7 @@
         <v>1018.6</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>42767</v>
       </c>
@@ -27724,7 +27769,7 @@
         <v>1018.7</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>42795</v>
       </c>
@@ -27831,7 +27876,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>42826</v>
       </c>
@@ -27938,7 +27983,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>42856</v>
       </c>
@@ -28045,7 +28090,7 @@
         <v>1016.7</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>42887</v>
       </c>
@@ -28152,7 +28197,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>42917</v>
       </c>
@@ -28259,7 +28304,7 @@
         <v>1015.6</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>42948</v>
       </c>
@@ -28366,7 +28411,7 @@
         <v>1016.9</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>42979</v>
       </c>
@@ -28473,7 +28518,7 @@
         <v>1019.8</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43009</v>
       </c>
@@ -28580,7 +28625,7 @@
         <v>1014.6</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43040</v>
       </c>
@@ -28687,7 +28732,7 @@
         <v>1019.1</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43070</v>
       </c>
@@ -28794,7 +28839,7 @@
         <v>1021.6</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43101</v>
       </c>
@@ -28901,7 +28946,7 @@
         <v>1018.6</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43132</v>
       </c>
@@ -29008,7 +29053,7 @@
         <v>1018.5</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43160</v>
       </c>
@@ -29115,7 +29160,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43191</v>
       </c>
@@ -29222,7 +29267,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43221</v>
       </c>
@@ -29329,7 +29374,7 @@
         <v>1016.7</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43252</v>
       </c>
@@ -29436,7 +29481,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43282</v>
       </c>
@@ -29543,7 +29588,7 @@
         <v>1015.6</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43313</v>
       </c>
@@ -29650,7 +29695,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43344</v>
       </c>
@@ -29757,7 +29802,7 @@
         <v>1020.3</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43374</v>
       </c>
@@ -29864,7 +29909,7 @@
         <v>1018.4</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43405</v>
       </c>
@@ -29971,7 +30016,7 @@
         <v>1019.3</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43435</v>
       </c>
@@ -30078,7 +30123,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43466</v>
       </c>
@@ -30185,7 +30230,7 @@
         <v>1019.8</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43497</v>
       </c>
@@ -30292,7 +30337,7 @@
         <v>1021.6</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43525</v>
       </c>
@@ -30399,7 +30444,7 @@
         <v>1020.7</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43556</v>
       </c>
@@ -30506,7 +30551,7 @@
         <v>1015.9</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43586</v>
       </c>
@@ -30613,7 +30658,7 @@
         <v>1014.6</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43617</v>
       </c>
@@ -30720,7 +30765,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43647</v>
       </c>
@@ -30827,7 +30872,7 @@
         <v>1015.3</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43678</v>
       </c>
@@ -30934,7 +30979,7 @@
         <v>1015.1</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43709</v>
       </c>
@@ -31041,7 +31086,7 @@
         <v>1019.1</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43739</v>
       </c>
@@ -31148,7 +31193,7 @@
         <v>1018.4</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43770</v>
       </c>
@@ -31255,7 +31300,7 @@
         <v>1019.6</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43800</v>
       </c>
@@ -31362,7 +31407,7 @@
         <v>1019.1</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43831</v>
       </c>
@@ -31469,7 +31514,7 @@
         <v>1021.3</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43862</v>
       </c>
@@ -31576,7 +31621,7 @@
         <v>1017.7</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43891</v>
       </c>
@@ -31683,7 +31728,7 @@
         <v>1020.3</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43922</v>
       </c>
@@ -31790,7 +31835,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43952</v>
       </c>
@@ -31897,7 +31942,7 @@
         <v>1017.6</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43983</v>
       </c>
@@ -32004,7 +32049,7 @@
         <v>1015.9</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44013</v>
       </c>
@@ -32111,7 +32156,7 @@
         <v>1014.4</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44044</v>
       </c>
@@ -32218,7 +32263,7 @@
         <v>1014.8</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44075</v>
       </c>
@@ -32325,7 +32370,7 @@
         <v>1019.1</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44105</v>
       </c>
@@ -32432,7 +32477,7 @@
         <v>1019.4</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44136</v>
       </c>
@@ -32539,7 +32584,7 @@
         <v>1022.4</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44166</v>
       </c>
@@ -32646,7 +32691,7 @@
         <v>1018.5</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44197</v>
       </c>
@@ -32753,7 +32798,7 @@
         <v>1017.8</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44228</v>
       </c>
@@ -32860,7 +32905,7 @@
         <v>1019.7</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44256</v>
       </c>
@@ -32967,7 +33012,7 @@
         <v>1021.7</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44287</v>
       </c>
@@ -33074,7 +33119,7 @@
         <v>1014.2</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44317</v>
       </c>
@@ -33181,7 +33226,7 @@
         <v>1019.2</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44348</v>
       </c>
@@ -33288,7 +33333,7 @@
         <v>1016.6</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44378</v>
       </c>
@@ -33395,7 +33440,7 @@
         <v>1015.5</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44409</v>
       </c>
@@ -33502,7 +33547,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44440</v>
       </c>
@@ -33609,7 +33654,7 @@
         <v>1016.4</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44470</v>
       </c>
@@ -33716,7 +33761,7 @@
         <v>1015.5</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44501</v>
       </c>
@@ -33823,7 +33868,7 @@
         <v>1020.7</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44531</v>
       </c>
@@ -33930,7 +33975,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44562</v>
       </c>
@@ -34037,7 +34082,7 @@
         <v>1019.6</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44593</v>
       </c>
@@ -34144,7 +34189,7 @@
         <v>1023.3</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44621</v>
       </c>
@@ -34248,7 +34293,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44652</v>
       </c>
@@ -34355,7 +34400,7 @@
         <v>1017.1</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44682</v>
       </c>
@@ -34462,7 +34507,7 @@
         <v>1016.8</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44713</v>
       </c>
@@ -34569,7 +34614,7 @@
         <v>1015.2</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44743</v>
       </c>
@@ -34676,7 +34721,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44774</v>
       </c>
@@ -34783,7 +34828,7 @@
         <v>1016.5</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44805</v>
       </c>
@@ -34890,7 +34935,7 @@
         <v>1016.9</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44835</v>
       </c>
@@ -34997,7 +35042,7 @@
         <v>1018.5</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44866</v>
       </c>
@@ -35104,7 +35149,7 @@
         <v>1022.1</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44896</v>
       </c>
